--- a/outputs-HGR-r202/test-g__Mediterraneibacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Mediterraneibacter_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Row</t>
   </si>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -98,14 +98,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,36 +134,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -188,7 +192,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -217,7 +221,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -246,7 +250,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -275,7 +279,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -304,7 +308,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -333,58 +337,58 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.60077089950350127</v>
+        <v>0.0014614896629959384</v>
       </c>
       <c r="C8">
-        <v>0.32211726787060613</v>
+        <v>0.97978444770889739</v>
       </c>
       <c r="D8">
-        <v>0.060161434245519993</v>
+        <v>0.013558757103488594</v>
       </c>
       <c r="E8">
-        <v>0.00028510286928329543</v>
+        <v>4.2541457397019828e-05</v>
       </c>
       <c r="F8">
-        <v>0.0084793150596792332</v>
+        <v>0.0031535713717940677</v>
       </c>
       <c r="G8">
-        <v>0.0057056420794849173</v>
+        <v>0.00063169988193153377</v>
       </c>
       <c r="H8">
-        <v>0.0024803383719254847</v>
+        <v>0.0013674928134955711</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0014614896629959384</v>
+        <v>0.040880754048789637</v>
       </c>
       <c r="C9">
-        <v>0.97978444770889739</v>
+        <v>0.94355343806569503</v>
       </c>
       <c r="D9">
-        <v>0.013558757103488594</v>
+        <v>0.0096706737771803143</v>
       </c>
       <c r="E9">
-        <v>4.2541457397019828e-05</v>
+        <v>2.8029763003678467e-05</v>
       </c>
       <c r="F9">
-        <v>0.0031535713717940677</v>
+        <v>0.0039095016716828111</v>
       </c>
       <c r="G9">
-        <v>0.00063169988193153377</v>
+        <v>0.0014427932094817125</v>
       </c>
       <c r="H9">
-        <v>0.0013674928134955711</v>
+        <v>0.00051480946416685152</v>
       </c>
       <c r="I9">
         <v>2</v>
